--- a/연구소/IA_v1.1(250922).xlsx
+++ b/연구소/IA_v1.1(250922).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0ca47fc2879dc50/바탕 화면/연구소/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1132" documentId="13_ncr:1_{4BEF785C-BC9D-46B6-81BB-2DE55E5DF9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5158922C-2EA8-47FF-BBCD-3DD54FAC2A69}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACC6E228-699B-4E41-B85F-2F5CB887FF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
